--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_16_35.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_16_35.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33843.38977940267</v>
+        <v>6734834.566101134</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>33843.38977940267</v>
+        <v>6734834.566101134</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>18998.05640232843</v>
+        <v>1146088.991917169</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>18998.05640232843</v>
+        <v>1146088.991917169</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1342840232.821993</v>
+        <v>54523038.90193994</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12178.04581947546</v>
+        <v>1304568.32867054</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>23133.10186611986</v>
+        <v>2406523.23896156</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>34088.15791276423</v>
+        <v>3508478.149252581</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>45616.27161045883</v>
+        <v>4573771.425350212</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>57144.38530815339</v>
+        <v>5639064.701447844</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>68672.49900584796</v>
+        <v>6704357.977545473</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>80200.61270354252</v>
+        <v>7769651.253643099</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>91728.72640123709</v>
+        <v>8834944.529740727</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>103054.1320772945</v>
+        <v>9900108.562911296</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>114408.0468442598</v>
+        <v>10970945.90517308</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>125761.9616112245</v>
+        <v>12041783.24743474</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>137115.8763781867</v>
+        <v>13112620.58969661</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>148469.7911451476</v>
+        <v>14183457.93195872</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>159823.7059121086</v>
+        <v>15254295.27422082</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>171177.6206790693</v>
+        <v>16325132.61648292</v>
       </c>
     </row>
   </sheetData>
@@ -27037,28 +27037,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>276</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>288.0000000000559</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,22 +27144,22 @@
         <v>825</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
